--- a/biology/Neurosciences/David_Servan-Schreiber/David_Servan-Schreiber.xlsx
+++ b/biology/Neurosciences/David_Servan-Schreiber/David_Servan-Schreiber.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">David Servan-Schreiber est un médecin et docteur ès sciences français, né le 21 avril 1961 à Neuilly-sur-Seine et mort le 24 juillet 2011 à Fécamp[1]. Il fut chargé de cours à l'université Lyon-I, et enseigna comme professeur de psychiatrie clinique à l'université de Pittsburgh.
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">David Servan-Schreiber est un médecin et docteur ès sciences français, né le 21 avril 1961 à Neuilly-sur-Seine et mort le 24 juillet 2011 à Fécamp. Il fut chargé de cours à l'université Lyon-I, et enseigna comme professeur de psychiatrie clinique à l'université de Pittsburgh.
 En 2003, le grand public découvre le chercheur à l'occasion de la publication de son livre Guérir, destiné au travers de son expérience personnelle à explorer de nouvelles méthodes de lutte contre la maladie, notamment le cancer.
 Il est le fils de Jean-Jacques Servan-Schreiber, fondateur de L'Express et homme politique des années 1970.
 </t>
@@ -515,15 +527,18 @@
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t xml:space="preserve">Origines, formation et famille
-Né en 1961, David Servan-Schreiber est membre de la famille Servan-Schreiber. Il est le fils aîné de Jean-Jacques Servan-Schreiber et de Sabine Becq de Fouquières. Il a trois frères : Franklin, Émile et Édouard.
-Il commence ses études de médecine à la faculté Necker-Enfants malades, à Paris, en 1978 et les termine au Québec, à l'université Laval, en 1984[2]. Il poursuit ensuite des études de spécialisation en médecine interne et en psychiatrie à l'hôpital Royal Victoria de Montréal (université McGill).
-Plus tard, David Servan-Schreiber rejoint ses trois frères à l'université Carnegie-Mellon de Pittsburgh[3].
-Il obtient un doctorat de neurosciences cognitives en 1990 avec une thèse intitulée les mécanismes neurobiologiques de la pensée et des émotions[4].
-Des éléments de sa thèse, portant sur la simulation de l'influence des émotions sur les processus cognitifs au niveau neuronal sont publiés dans la revue Science[4].
-De 1990 à 1993, David Servan-Schreiber est interne en psychiatrie clinique à l'institut psychiatrique de Pittsburgh[5].
-Mort
-David Servan-Schreiber meurt en 2011 d'une tumeur au cerveau et est enterré au cimetière de Veulettes-sur-Mer (Seine-Maritime).
+          <t>Origines, formation et famille</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Né en 1961, David Servan-Schreiber est membre de la famille Servan-Schreiber. Il est le fils aîné de Jean-Jacques Servan-Schreiber et de Sabine Becq de Fouquières. Il a trois frères : Franklin, Émile et Édouard.
+Il commence ses études de médecine à la faculté Necker-Enfants malades, à Paris, en 1978 et les termine au Québec, à l'université Laval, en 1984. Il poursuit ensuite des études de spécialisation en médecine interne et en psychiatrie à l'hôpital Royal Victoria de Montréal (université McGill).
+Plus tard, David Servan-Schreiber rejoint ses trois frères à l'université Carnegie-Mellon de Pittsburgh.
+Il obtient un doctorat de neurosciences cognitives en 1990 avec une thèse intitulée les mécanismes neurobiologiques de la pensée et des émotions.
+Des éléments de sa thèse, portant sur la simulation de l'influence des émotions sur les processus cognitifs au niveau neuronal sont publiés dans la revue Science.
+De 1990 à 1993, David Servan-Schreiber est interne en psychiatrie clinique à l'institut psychiatrique de Pittsburgh.
 </t>
         </is>
       </c>
@@ -549,14 +564,57 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
+          <t>Biographie</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>Origines, formation et famille</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>Mort</t>
+        </is>
+      </c>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">David Servan-Schreiber meurt en 2011 d'une tumeur au cerveau et est enterré au cimetière de Veulettes-sur-Mer (Seine-Maritime).
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>David_Servan-Schreiber</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Portail:Neurosciences/Articles liés</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/David_Servan-Schreiber</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
           <t>Publications</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t>Guérir, Éditions Robert Laffont, 2003, Pocket 2005
 Gérard Pons, Norman E. Rosenthal et David Servan-Schreiber (trad. de l'anglais), Soif de lumière : La luminothérapie : une solution à la dépression saisonnière, Genève-Bernex/Saint-Julien-en-Genevoix, Jouvence, 18 septembre 2006, 220 p. (ISBN 2-88353-515-9 et 978-2883535152, présentation en ligne)
-Anticancer : Prévenir et lutter grâce à nos défenses naturelles, Éditions Robert Laffont, 2007[6], Pocket 2009
+Anticancer : Prévenir et lutter grâce à nos défenses naturelles, Éditions Robert Laffont, 2007, Pocket 2009
 En collaboration avec Ursula Gauthier On peut se dire au-revoir plusieurs fois, Éditions Robert Laffont, 2011, Pocket 2012</t>
         </is>
       </c>
